--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -982,9 +982,23 @@
         <v>bec2ce37d057915aa139e80c5803ab7d12843fd7ffa12cb00985da2819e7afe2</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>30.06.2023 10:10 (CET)</v>
+      </c>
+      <c r="C44" t="str">
+        <v>{"ProposedVersion":"https://github.com/tibonto/dr/commit/49822f5ba69988dc48650588cb0f5aa30ddb1fe1","UpdatedVersion":"https://github.com/tibonto/dr/commit/49822f5ba69988dc48650588cb0f5aa30ddb1fe1","Domain":"Sustainability","LobeOwner":"member3","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D44" t="str">
+        <v>d75a9129ea1d908b567934726cb96f834f93a92a133bbe587dee6d308b174892</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D44"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -996,9 +996,23 @@
         <v>d75a9129ea1d908b567934726cb96f834f93a92a133bbe587dee6d308b174892</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>05.07.2023 15:03 (CET)</v>
+      </c>
+      <c r="C45" t="str">
+        <v>{"ProposedVersion":"https://github.com/tibonto/dr/commit/3d807c9bd4e9b09ca7d8a0760c7902aa75201c97","UpdatedVersion":"https://github.com/tibonto/dr/commit/37f44bcd00cbfa026b01bdd665fe384881f5744f","Domain":"Sustainability","LobeOwner":"member3","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D45" t="str">
+        <v>7e1d92be37dc612ecef119887ee6f1468cb439428f2df40dd2217c8fee8a9bfa</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1010,9 +1010,23 @@
         <v>7e1d92be37dc612ecef119887ee6f1468cb439428f2df40dd2217c8fee8a9bfa</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>17.07.2023 11:40 (CET)</v>
+      </c>
+      <c r="C46" t="str">
+        <v>{"ProposedVersion":"https://github.com/tibonto/dr/commit/e6d10f8125f8d72ce35d8b91448a3311787bd30e","UpdatedVersion":"https://github.com/tibonto/dr/commit/e6d10f8125f8d72ce35d8b91448a3311787bd30e","Domain":"Sustainability","LobeOwner":"member3","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D46" t="str">
+        <v>4716632ceb622629977f4fc5e727772ff5c8d972ba3dfb804d923198a2aa2bc3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D46"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,9 +1024,23 @@
         <v>4716632ceb622629977f4fc5e727772ff5c8d972ba3dfb804d923198a2aa2bc3</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>04.08.2023 12:31 (CET)</v>
+      </c>
+      <c r="C47" t="str">
+        <v>{"ProposedVersion":"https://github.com/tibonto/dr/commit/85f9cce24c27847fce2b2bb1ee7d9f2e05ce802d ","UpdatedVersion":"https://github.com/tibonto/dr/commit/85f9cce24c27847fce2b2bb1ee7d9f2e05ce802d","Domain":"Planning","LobeOwner":"member1","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D47" t="str">
+        <v>4a51a8bbb1a7b315d67ec715f9a71e4197aedf566442f359dff5013557f046c7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D47"/>
   </ignoredErrors>
 </worksheet>
 </file>